--- a/lab-7/data.xlsx
+++ b/lab-7/data.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Uniandes\Doctorado\Segundo semestre\Asistencia graduada\Programación científica\Lab 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e5a55e572e143df/Documentos/universidad/2023-1/progrmacion cientifica/Scientific-computing-labs/lab-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CE41EA-16A3-4672-AEFF-69BEE8B6E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C3CE41EA-16A3-4672-AEFF-69BEE8B6E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA175E8-1215-49FF-8404-380BEC826C2C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -43,14 +54,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,821 +374,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.42578125" customWidth="true"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>3.1915896962084389</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="B2" s="0">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
         <v>-1.7354275781206994</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="B3" s="0">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
         <v>-0.34761110108189364</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="B4" s="0">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
         <v>-0.62600552848418989</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="B5" s="0">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
         <v>1.8679752078071559</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>0.5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B7">
         <v>3.0682768656792376</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="B7" s="0">
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
         <v>11.710715647974208</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="B8" s="0">
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
         <v>-1.8713795585238309</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="B9" s="0">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10">
         <v>1.2720735055476577</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="B10" s="0">
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
         <v>6.4825124397671487</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B12">
         <v>5.2386487885929185</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B13">
         <v>1.2443797138088222</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>1.2</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B14">
         <v>8.0918692590623795</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>1.3</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B15">
         <v>14.566553979508647</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="B15" s="0">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+      <c r="B16">
         <v>-1.2809955523101557</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B17">
         <v>6.817529378604041</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="B17" s="0">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.6</v>
+      </c>
+      <c r="B18">
         <v>0.18516002674912357</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>1.7</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B19">
         <v>10.264752308514572</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>1.8</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B20">
         <v>10.286211605831395</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>1.8999999999999999</v>
-      </c>
-      <c r="B20" s="0">
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="B21">
         <v>15.361158005426017</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B22">
         <v>5.1618054439787642</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="B22" s="0">
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2.1</v>
+      </c>
+      <c r="B23">
         <v>12.747234849729383</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B24">
         <v>10.679477336447203</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B25">
         <v>19.219630436073732</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="B25" s="0">
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>2.4</v>
+      </c>
+      <c r="B26">
         <v>15.716721888964887</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0">
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B27">
         <v>10.077583322169057</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="B27" s="0">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>2.6</v>
+      </c>
+      <c r="B28">
         <v>10.443725957877646</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>2.7000000000000002</v>
-      </c>
-      <c r="B28" s="0">
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>2.7</v>
+      </c>
+      <c r="B29">
         <v>9.0743620462895791</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>2.7999999999999998</v>
-      </c>
-      <c r="B29" s="0">
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2.8</v>
+      </c>
+      <c r="B30">
         <v>23.550562907467942</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>2.8999999999999999</v>
-      </c>
-      <c r="B30" s="0">
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>2.9</v>
+      </c>
+      <c r="B31">
         <v>10.964019796478707</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0">
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B32">
         <v>8.6681215555658948</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="B32" s="0">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>3.1</v>
+      </c>
+      <c r="B33">
         <v>13.225941134541845</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="B33" s="0">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>3.2</v>
+      </c>
+      <c r="B34">
         <v>21.332581857656489</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>3.2999999999999998</v>
-      </c>
-      <c r="B34" s="0">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>3.3</v>
+      </c>
+      <c r="B35">
         <v>21.118000200588632</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>3.3999999999999999</v>
-      </c>
-      <c r="B35" s="0">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>3.4</v>
+      </c>
+      <c r="B36">
         <v>21.517843457421481</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0">
+    <row r="37" spans="1:2">
+      <c r="A37">
         <v>3.5</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B37">
         <v>8.1245157482300296</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="B37" s="0">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>3.6</v>
+      </c>
+      <c r="B38">
         <v>15.986912025516821</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="B38" s="0">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>3.7</v>
+      </c>
+      <c r="B39">
         <v>27.029912385853173</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="B39" s="0">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>3.8</v>
+      </c>
+      <c r="B40">
         <v>15.866896561545047</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>3.8999999999999999</v>
-      </c>
-      <c r="B40" s="0">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>3.9</v>
+      </c>
+      <c r="B41">
         <v>21.941658464296175</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0">
+    <row r="42" spans="1:2">
+      <c r="A42">
         <v>4</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B42">
         <v>16.455903649446384</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0">
+    <row r="43" spans="1:2">
+      <c r="A43">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B43">
         <v>13.500287625714556</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="B43" s="0">
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>4.2</v>
+      </c>
+      <c r="B44">
         <v>19.267113373141129</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>4.2999999999999998</v>
-      </c>
-      <c r="B44" s="0">
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>4.3</v>
+      </c>
+      <c r="B45">
         <v>28.353754879477322</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0">
+    <row r="46" spans="1:2">
+      <c r="A46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B46">
         <v>32.123514084866528</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0">
+    <row r="47" spans="1:2">
+      <c r="A47">
         <v>4.5</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B47">
         <v>30.239796705743093</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0">
+    <row r="48" spans="1:2">
+      <c r="A48">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B48">
         <v>15.176417641920121</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>4.7000000000000002</v>
-      </c>
-      <c r="B48" s="0">
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>4.7</v>
+      </c>
+      <c r="B49">
         <v>20.754239806742486</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="B49" s="0">
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>4.8</v>
+      </c>
+      <c r="B50">
         <v>19.222583327442862</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0">
+    <row r="51" spans="1:2">
+      <c r="A51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B51">
         <v>21.356107758643411</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0">
+    <row r="52" spans="1:2">
+      <c r="A52">
         <v>5</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B52">
         <v>35.188968109487</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0">
+    <row r="53" spans="1:2">
+      <c r="A53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B53">
         <v>26.965017825128335</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="B53" s="0">
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>5.2</v>
+      </c>
+      <c r="B54">
         <v>31.485025187088535</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>5.2999999999999998</v>
-      </c>
-      <c r="B54" s="0">
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>5.3</v>
+      </c>
+      <c r="B55">
         <v>33.83703469448178</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>5.4000000000000004</v>
-      </c>
-      <c r="B55" s="0">
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>5.4</v>
+      </c>
+      <c r="B56">
         <v>20.837794139740566</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0">
+    <row r="57" spans="1:2">
+      <c r="A57">
         <v>5.5</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B57">
         <v>36.061952185791668</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>5.5999999999999996</v>
-      </c>
-      <c r="B57" s="0">
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>5.6</v>
+      </c>
+      <c r="B58">
         <v>20.602482556444372</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>5.7000000000000002</v>
-      </c>
-      <c r="B58" s="0">
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>5.7</v>
+      </c>
+      <c r="B59">
         <v>33.901861928814469</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="B59" s="0">
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>5.8</v>
+      </c>
+      <c r="B60">
         <v>34.087438756758104</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>5.9000000000000004</v>
-      </c>
-      <c r="B60" s="0">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>5.9</v>
+      </c>
+      <c r="B61">
         <v>34.349392042205707</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0">
+    <row r="62" spans="1:2">
+      <c r="A62">
         <v>6</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B62">
         <v>23.16863535464071</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>6.0999999999999996</v>
-      </c>
-      <c r="B62" s="0">
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>6.1</v>
+      </c>
+      <c r="B63">
         <v>29.915779990325362</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>6.2000000000000002</v>
-      </c>
-      <c r="B63" s="0">
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>6.2</v>
+      </c>
+      <c r="B64">
         <v>31.675744624291411</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>6.2999999999999998</v>
-      </c>
-      <c r="B64" s="0">
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>6.3</v>
+      </c>
+      <c r="B65">
         <v>32.609805816373822</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="B65" s="0">
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>6.4</v>
+      </c>
+      <c r="B66">
         <v>39.694340871709798</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0">
+    <row r="67" spans="1:2">
+      <c r="A67">
         <v>6.5</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B67">
         <v>36.554498214393774</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="B67" s="0">
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>6.6</v>
+      </c>
+      <c r="B68">
         <v>39.61676517589504</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>6.7000000000000002</v>
-      </c>
-      <c r="B68" s="0">
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>6.7</v>
+      </c>
+      <c r="B69">
         <v>34.62485738917163</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="B69" s="0">
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>6.8</v>
+      </c>
+      <c r="B70">
         <v>43.61791677226384</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>6.9000000000000004</v>
-      </c>
-      <c r="B70" s="0">
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>6.9</v>
+      </c>
+      <c r="B71">
         <v>26.333538891986464</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0">
+    <row r="72" spans="1:2">
+      <c r="A72">
         <v>7</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B72">
         <v>36.33036054899901</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="B72" s="0">
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>7.1</v>
+      </c>
+      <c r="B73">
         <v>31.633206869892742</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="B73" s="0">
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>7.2</v>
+      </c>
+      <c r="B74">
         <v>36.118006727310302</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="B74" s="0">
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>7.3</v>
+      </c>
+      <c r="B75">
         <v>40.697275626976094</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="B75" s="0">
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>7.4</v>
+      </c>
+      <c r="B76">
         <v>31.665167775934954</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0">
+    <row r="77" spans="1:2">
+      <c r="A77">
         <v>7.5</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B77">
         <v>40.163219771881323</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="B77" s="0">
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>7.6</v>
+      </c>
+      <c r="B78">
         <v>35.02352344753524</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="B78" s="0">
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>7.7</v>
+      </c>
+      <c r="B79">
         <v>46.61694404723616</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="B79" s="0">
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>7.8</v>
+      </c>
+      <c r="B80">
         <v>32.167892267218498</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="B80" s="0">
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>7.9</v>
+      </c>
+      <c r="B81">
         <v>32.048155797746759</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0">
+    <row r="82" spans="1:2">
+      <c r="A82">
         <v>8</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B82">
         <v>49.682338062678639</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0">
-        <v>8.0999999999999996</v>
-      </c>
-      <c r="B82" s="0">
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>8.1</v>
+      </c>
+      <c r="B83">
         <v>34.058039993495846</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0">
+    <row r="84" spans="1:2">
+      <c r="A84">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B84">
         <v>34.550761621909018</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0">
+    <row r="85" spans="1:2">
+      <c r="A85">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B85">
         <v>35.111051761132558</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="B85" s="0">
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>8.4</v>
+      </c>
+      <c r="B86">
         <v>34.291388058537223</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="0">
+    <row r="87" spans="1:2">
+      <c r="A87">
         <v>8.5</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B87">
         <v>42.08849122806258</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="B87" s="0">
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>8.6</v>
+      </c>
+      <c r="B88">
         <v>46.877913856205751</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0">
+    <row r="89" spans="1:2">
+      <c r="A89">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B89">
         <v>50.626033639011339</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0">
+    <row r="90" spans="1:2">
+      <c r="A90">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B90">
         <v>50.304702738274273</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="B90" s="0">
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>8.9</v>
+      </c>
+      <c r="B91">
         <v>49.254218355839754</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0">
+    <row r="92" spans="1:2">
+      <c r="A92">
         <v>9</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B92">
         <v>44.951950100835617</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0">
-        <v>9.0999999999999996</v>
-      </c>
-      <c r="B92" s="0">
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>9.1</v>
+      </c>
+      <c r="B93">
         <v>50.171763047914965</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0">
+    <row r="94" spans="1:2">
+      <c r="A94">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B94">
         <v>55.661189620405295</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0">
+    <row r="95" spans="1:2">
+      <c r="A95">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B95">
         <v>47.115511245958871</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0">
-        <v>9.4000000000000004</v>
-      </c>
-      <c r="B95" s="0">
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>9.4</v>
+      </c>
+      <c r="B96">
         <v>43.601062306349576</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0">
+    <row r="97" spans="1:2">
+      <c r="A97">
         <v>9.5</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B97">
         <v>53.796223676039375</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="B97" s="0">
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>9.6</v>
+      </c>
+      <c r="B98">
         <v>43.22773927175664</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0">
+    <row r="99" spans="1:2">
+      <c r="A99">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B99">
         <v>43.68605666546091</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0">
+    <row r="100" spans="1:2">
+      <c r="A100">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B100">
         <v>48.793987972174847</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="B100" s="0">
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>9.9</v>
+      </c>
+      <c r="B101">
         <v>52.387736024319018</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0">
+    <row r="102" spans="1:2">
+      <c r="A102">
         <v>10</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B102">
         <v>52.806588003350683</v>
       </c>
     </row>
